--- a/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
+++ b/Docs/ISIS1225 - Tablas de Datos Lab 5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lina/Library/Mobile Documents/com~apple~CloudDocs/Universidad/EDA/ISIS1225-Laboratorio-5/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c7b6f5eba236f6e/Documents/EDA LAB1/Lab 5-1/Laboratorio-5-G02/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{956D6578-0A0A-6148-A156-5D7CA8FF2F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{373BFAB7-DE9A-47E6-8B71-0879A0BE71DF}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="8" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="01-Data" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
   <si>
-    <t xml:space="preserve">Algoritmo iterativo (especificar) </t>
-  </si>
-  <si>
-    <t>Algoritmo recursivo (especificar)</t>
-  </si>
-  <si>
     <t>TIEMPOS DE EJECUCIÓN MEJORES ALGORITMOS [ms]</t>
   </si>
   <si>
@@ -101,6 +95,12 @@
   </si>
   <si>
     <t xml:space="preserve">TIEMPOS DE EJECUCIÓN SINGLE LINKED LIST [ms] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algoritmo iterativo (Array List:Shell Sort) </t>
+  </si>
+  <si>
+    <t>Algoritmo recursivo (Array List: merge sort)</t>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,9 +359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -444,6 +441,93 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Dax-Regular"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -580,85 +664,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Dax-Regular"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1209,6 +1214,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>836.29200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2876.183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15971.907999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16806.947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23236.046999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1296,6 +1325,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542.23699999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2176.5540000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4916.0330000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11325.732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25704.664000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40619.148999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1383,6 +1436,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.568999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1068.097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1692.6489999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1470,6 +1547,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.346000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>352.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400.83100000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1557,6 +1658,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197.589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518.803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1179.056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1824.7850000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1857,6 +1982,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1864,7 +1990,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2051,6 +2176,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5741.6440000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46589.084000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375896.087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1271913.476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2138,6 +2287,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16.262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8003.2979999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38117.784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350901.41800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2225,6 +2398,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>465.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3587.2939999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17240.696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43328.544999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162086.97399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555812.56700000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2312,6 +2509,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>363.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1740.4110000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3587.1010000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12169.522999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16046.59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2399,6 +2620,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1395.499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2347.5230000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2700,6 +2945,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2707,7 +2953,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2894,6 +3139,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68.451999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>836.29200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2876.183</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15971.907999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16806.947</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23236.046999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2942,6 +3211,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$14:$A$21</c:f>
@@ -2981,6 +3264,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.4580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5741.6440000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46589.084000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>375896.087</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1271913.476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3282,6 +3589,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3289,7 +3597,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3476,6 +3783,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>542.23699999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2176.5540000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4916.0330000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11325.732</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25704.664000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40619.148999999998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3524,6 +3855,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$14:$A$21</c:f>
@@ -3563,6 +3908,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>16.262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8003.2979999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38117.784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>350901.41800000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3864,6 +4233,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3871,7 +4241,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4058,6 +4427,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.568999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1068.097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1692.6489999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4106,6 +4499,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$14:$A$21</c:f>
@@ -4145,6 +4552,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>465.30500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3587.2939999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17240.696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43328.544999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162086.97399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>555812.56700000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4446,6 +4877,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4453,7 +4885,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4640,6 +5071,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.346000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>352.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400.83100000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4688,6 +5143,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$14:$A$21</c:f>
@@ -4727,6 +5196,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.1559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.707000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154.255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>363.29199999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1740.4110000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3587.1010000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12169.522999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16046.59</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5028,6 +5521,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5035,7 +5529,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5217,6 +5710,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.237000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197.589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>518.803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1179.056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1824.7850000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5265,6 +5782,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$14:$A$21</c:f>
@@ -5304,6 +5835,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.95099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>194.321</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523.78099999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1395.499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2347.5230000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5605,6 +6160,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5612,7 +6168,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5731,7 +6286,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Algoritmo iterativo (especificar) </c:v>
+                  <c:v>Algoritmo iterativo (Array List:Shell Sort) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5760,6 +6315,20 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'01-Data'!$A$25:$A$32</c:f>
@@ -5799,6 +6368,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.36299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.568999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>179.273</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>507.41800000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1068.097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1692.6489999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5818,7 +6411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Algoritmo recursivo (especificar)</c:v>
+                  <c:v>Algoritmo recursivo (Array List: merge sort)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5886,6 +6479,30 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.346000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120.316</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.71799999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>352.43299999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400.83100000000002</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6187,6 +6804,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6194,7 +6812,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10678,7 +11295,7 @@
     <tabColor rgb="FF9EC4F3"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="130" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10769,7 +11386,7 @@
     <tabColor rgb="FFF3B2EE"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10780,7 +11397,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8676640" cy="6289040"/>
+    <xdr:ext cx="8669215" cy="6283569"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10813,7 +11430,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663983" cy="6285424"/>
+    <xdr:ext cx="8672593" cy="6283271"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10846,7 +11463,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8671560" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10879,7 +11496,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8671560" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10912,7 +11529,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8671560" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -10945,7 +11562,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8671560" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -10978,7 +11595,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8671560" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -11011,7 +11628,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8674100" cy="6286500"/>
+    <xdr:ext cx="8671560" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
@@ -11038,6 +11655,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11082,18 +11703,18 @@
     <tableColumn id="2" xr3:uid="{4F9B7329-040C-4D35-96E7-B9181424DC65}" name="Tamaño de la muestra (LINKED_LIST)" dataDxfId="12">
       <calculatedColumnFormula>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BDA028DF-4CED-4928-B040-96AD8F8A43EB}" name="Insertion Sort Linked List" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{A5E99D51-DD73-48A7-AE0D-601A8EE89AFA}" name="Selection Sort Linked List" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A2E3ADDC-6DD2-4948-B1D7-3CE7770DFC65}" name="Shell Sort Linked List" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{CE9F6C54-1CFA-E54C-8FB6-7838A5EDD8A3}" name="Merge Sort Linked List" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{B636EE2A-F13E-2342-B329-EE5C61F78A76}" name="Quick Sort Linked List" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}" name="Tabla3" displayName="Tabla3" ref="A24:D32" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A24:D32" xr:uid="{4009FC45-711A-7E4A-BD3C-BEB6C9914449}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -11101,12 +11722,12 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{B41C1FDF-31EB-8245-9B27-55998E13A758}" name="Porcentaje de la muestra [pct]" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{A5516E25-E137-844A-8ACE-E872C6D3AF26}" name="Tamaño de la muestra " dataDxfId="2">
       <calculatedColumnFormula>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (especificar) " dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D7C2D6B9-4643-7546-86E6-D34E7A0D57D5}" name="Algoritmo recursivo (especificar)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{FCABA3BF-6045-0E48-BB37-6E396D6328EB}" name="Algoritmo iterativo (Array List:Shell Sort) " dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D7C2D6B9-4643-7546-86E6-D34E7A0D57D5}" name="Algoritmo recursivo (Array List: merge sort)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11414,32 +12035,32 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+    <sheetView topLeftCell="A5" zoomScale="76" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="11" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="11" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -11447,36 +12068,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1">
-      <c r="A3" s="26">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="13.8">
+      <c r="A3" s="25">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="27">
+        <v>1.18</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1.097</v>
+      </c>
+      <c r="E3" s="28">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="F3" s="28">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G3" s="22">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A4" s="7">
         <v>0.05</v>
       </c>
@@ -11484,11 +12115,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="13"/>
+      <c r="C4" s="21">
+        <v>68.451999999999998</v>
+      </c>
+      <c r="D4" s="21">
+        <v>123.032</v>
+      </c>
+      <c r="E4" s="19">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="F4" s="19">
+        <v>12.705</v>
+      </c>
+      <c r="G4" s="13">
+        <v>15.701000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="7">
@@ -11498,11 +12139,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="13"/>
+      <c r="C5" s="21">
+        <v>169.911</v>
+      </c>
+      <c r="D5" s="21">
+        <v>542.23699999999997</v>
+      </c>
+      <c r="E5" s="19">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="F5" s="19">
+        <v>29.099</v>
+      </c>
+      <c r="G5" s="13">
+        <v>34.237000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="7">
@@ -11512,11 +12163,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="13"/>
+      <c r="C6" s="21">
+        <v>836.29200000000003</v>
+      </c>
+      <c r="D6" s="21">
+        <v>2176.5540000000001</v>
+      </c>
+      <c r="E6" s="19">
+        <v>93.697000000000003</v>
+      </c>
+      <c r="F6" s="19">
+        <v>68.346000000000004</v>
+      </c>
+      <c r="G6" s="13">
+        <v>110.128</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="7">
@@ -11526,11 +12187,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="13"/>
+      <c r="C7" s="21">
+        <v>2876.183</v>
+      </c>
+      <c r="D7" s="21">
+        <v>4916.0330000000004</v>
+      </c>
+      <c r="E7" s="19">
+        <v>179.273</v>
+      </c>
+      <c r="F7" s="19">
+        <v>120.316</v>
+      </c>
+      <c r="G7" s="13">
+        <v>197.589</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7">
@@ -11540,11 +12211,21 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="13"/>
+      <c r="C8" s="21">
+        <v>15971.907999999999</v>
+      </c>
+      <c r="D8" s="21">
+        <v>11325.732</v>
+      </c>
+      <c r="E8" s="19">
+        <v>507.41800000000001</v>
+      </c>
+      <c r="F8" s="19">
+        <v>193.71799999999999</v>
+      </c>
+      <c r="G8" s="13">
+        <v>518.803</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="7">
@@ -11554,13 +12235,23 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
+      <c r="C9" s="21">
+        <v>16806.947</v>
+      </c>
+      <c r="D9" s="21">
+        <v>25704.664000000001</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1068.097</v>
+      </c>
+      <c r="F9" s="19">
+        <v>352.43299999999999</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1179.056</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1">
+    <row r="10" spans="1:8" ht="15" thickBot="1">
       <c r="A10" s="9">
         <v>1</v>
       </c>
@@ -11568,28 +12259,38 @@
         <f>Table1[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="14"/>
+      <c r="C10" s="23">
+        <v>23236.046999999999</v>
+      </c>
+      <c r="D10" s="23">
+        <v>40619.148999999998</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1692.6489999999999</v>
+      </c>
+      <c r="F10" s="24">
+        <v>400.83100000000002</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1824.7850000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="E11"/>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="21"/>
+      <c r="A12" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="20"/>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" ht="17" thickBot="1">
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1">
       <c r="A13" s="15" t="s">
         <v>0</v>
       </c>
@@ -11597,23 +12298,23 @@
         <v>2</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="F13" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="G13" s="29" t="s">
         <v>14</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="30" t="s">
-        <v>16</v>
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A14" s="7">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -11621,14 +12322,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>50</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="13"/>
+      <c r="C14" s="21">
+        <v>5.4580000000000002</v>
+      </c>
+      <c r="D14" s="21">
+        <v>16.262</v>
+      </c>
+      <c r="E14" s="21">
+        <v>2.573</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.70899999999999996</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
+    <row r="15" spans="1:8" s="2" customFormat="1" ht="13.8">
       <c r="A15" s="7">
         <v>0.05</v>
       </c>
@@ -11636,11 +12347,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>500</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="21">
+        <v>5741.6440000000002</v>
+      </c>
+      <c r="D15" s="21">
+        <v>8003.2979999999998</v>
+      </c>
+      <c r="E15" s="21">
+        <v>465.30500000000001</v>
+      </c>
+      <c r="F15" s="4">
+        <v>48.707000000000001</v>
+      </c>
+      <c r="G15" s="13">
+        <v>12.802</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8">
@@ -11651,11 +12372,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>1000</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="21">
+        <v>46589.084000000003</v>
+      </c>
+      <c r="D16" s="21">
+        <v>38117.784</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3587.2939999999999</v>
+      </c>
+      <c r="F16" s="4">
+        <v>154.255</v>
+      </c>
+      <c r="G16" s="13">
+        <v>36.44</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8">
@@ -11666,11 +12397,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>2000</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="21">
+        <v>375896.087</v>
+      </c>
+      <c r="D17" s="21">
+        <v>350901.41800000001</v>
+      </c>
+      <c r="E17" s="21">
+        <v>17240.696</v>
+      </c>
+      <c r="F17" s="4">
+        <v>363.29199999999997</v>
+      </c>
+      <c r="G17" s="13">
+        <v>105.95099999999999</v>
+      </c>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8">
@@ -11681,11 +12422,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="21">
+        <v>1271913.476</v>
+      </c>
+      <c r="D18" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="E18" s="21">
+        <v>43328.544999999998</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1740.4110000000001</v>
+      </c>
+      <c r="G18" s="13">
+        <v>194.321</v>
+      </c>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
@@ -11696,11 +12447,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="D19" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="E19" s="21">
+        <v>162086.97399999999</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3587.1010000000001</v>
+      </c>
+      <c r="G19" s="13">
+        <v>523.78099999999995</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8">
@@ -11711,14 +12472,24 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="D20" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="E20" s="21">
+        <v>555812.56700000004</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12169.522999999999</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1395.499</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="16" thickBot="1">
+    <row r="21" spans="1:8" ht="15" thickBot="1">
       <c r="A21" s="9">
         <v>1</v>
       </c>
@@ -11726,123 +12497,165 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
+      <c r="C21" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="D21" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="E21" s="21">
+        <v>99999999</v>
+      </c>
+      <c r="F21" s="11">
+        <v>16046.59</v>
+      </c>
+      <c r="G21" s="14">
+        <v>2347.5230000000001</v>
+      </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="16" thickBot="1"/>
+    <row r="22" spans="1:8" ht="15" thickBot="1"/>
     <row r="23" spans="1:8">
-      <c r="A23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
+      <c r="A23" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="18">
+      <c r="A25" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B25" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>50</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="C25" s="28">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="D25" s="28">
+        <v>0.86399999999999999</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="19">
+      <c r="A26" s="18">
         <v>0.05</v>
       </c>
       <c r="B26" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>500</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="C26" s="19">
+        <v>7.6669999999999998</v>
+      </c>
+      <c r="D26" s="19">
+        <v>12.705</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="18">
+      <c r="A27" s="17">
         <v>0.1</v>
       </c>
       <c r="B27" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>1000</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C27" s="19">
+        <v>21.568999999999999</v>
+      </c>
+      <c r="D27" s="19">
+        <v>29.099</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="19">
+      <c r="A28" s="18">
         <v>0.2</v>
       </c>
       <c r="B28" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>2000</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="C28" s="19">
+        <v>93.697000000000003</v>
+      </c>
+      <c r="D28" s="19">
+        <v>68.346000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="18">
+      <c r="A29" s="17">
         <v>0.3</v>
       </c>
       <c r="B29" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>3000</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="19">
+        <v>179.273</v>
+      </c>
+      <c r="D29" s="19">
+        <v>120.316</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="19">
+      <c r="A30" s="18">
         <v>0.5</v>
       </c>
       <c r="B30" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>5000</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="C30" s="19">
+        <v>507.41800000000001</v>
+      </c>
+      <c r="D30" s="19">
+        <v>193.71799999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="18">
+      <c r="A31" s="17">
         <v>0.8</v>
       </c>
       <c r="B31" s="12">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>8000</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="19">
+        <v>1068.097</v>
+      </c>
+      <c r="D31" s="19">
+        <v>352.43299999999999</v>
+      </c>
     </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="19">
+    <row r="32" spans="1:8" ht="15" thickBot="1">
+      <c r="A32" s="18">
         <v>1</v>
       </c>
       <c r="B32" s="5">
         <f>Tabla3[[#This Row],[Porcentaje de la muestra '[pct']]] *10000</f>
         <v>10000</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="C32" s="24">
+        <v>1692.6489999999999</v>
+      </c>
+      <c r="D32" s="24">
+        <v>400.83100000000002</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -11861,15 +12674,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="85e30bcc-d76c-4413-8e4d-2dce22fb0743">
@@ -11982,7 +12786,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010023858CF01A2EF24688B692775F4C60A4" ma:contentTypeVersion="17" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="af74a0f8eb440a60883e9dd833f0742f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="164883f8-7691-4ecf-b54a-664c0d0edefe" xmlns:ns3="85e30bcc-d76c-4413-8e4d-2dce22fb0743" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f5ceeff32ffca1089660572a8ebd1782" ns2:_="" ns3:_="">
     <xsd:import namespace="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
@@ -12231,15 +13035,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97C5E1E0-C817-4769-9D2D-1DC296B681FA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -12250,7 +13055,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D72429-8592-4E2D-9A60-DFD77A3B0B84}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12267,4 +13072,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8DF3742-38F2-4B99-B335-CC4F04ED9F45}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>